--- a/Model_comparaison.xlsx
+++ b/Model_comparaison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>dataset</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>dropout améliore l'overfiting</t>
+  </si>
+  <si>
+    <t>encours</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -154,11 +157,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +222,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -467,7 +516,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,13 +791,18 @@
       <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="I7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I7:L7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Model_comparaison.xlsx
+++ b/Model_comparaison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>dataset</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>dropout améliore l'overfiting</t>
-  </si>
-  <si>
-    <t>encours</t>
   </si>
 </sst>
 </file>
@@ -134,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,48 +154,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,15 +182,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +467,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,29 +731,32 @@
         <v>21</v>
       </c>
       <c r="E7" s="5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>18</v>
+      <c r="G7" s="6">
+        <v>1000</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
+      <c r="I7" s="6">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.4</v>
+      </c>
       <c r="M7" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I7:L7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
